--- a/Stagiaires/LAMOUM GHITA.xlsx
+++ b/Stagiaires/LAMOUM GHITA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
@@ -202,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,37 +280,37 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -327,10 +327,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau_Tâches" displayName="Tableau_Tâches" ref="A1:I28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I28">
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-  </autoFilter>
+  <autoFilter ref="A1:I28"/>
   <sortState ref="A2:G28">
     <sortCondition ref="D1:D28"/>
   </sortState>
@@ -424,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -458,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,14 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -652,7 +651,7 @@
     <col min="8" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -681,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="82.5" customHeight="1">
+    <row r="2" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -702,13 +701,13 @@
         <v>21</v>
       </c>
       <c r="H2" s="6">
-        <v>42795</v>
+        <v>42804</v>
       </c>
       <c r="I2" s="6">
-        <v>42799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -732,10 +731,10 @@
         <v>42793</v>
       </c>
       <c r="I3" s="6">
-        <v>42794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -759,10 +758,10 @@
         <v>42800</v>
       </c>
       <c r="I4" s="6">
-        <v>42802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -788,10 +787,10 @@
         <v>42793</v>
       </c>
       <c r="I5" s="6">
-        <v>42822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -816,7 +815,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -841,7 +840,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -862,7 +861,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -885,7 +884,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="45">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -908,7 +907,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1">
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -929,7 +928,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -950,7 +949,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1">
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -971,7 +970,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -992,7 +991,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1016,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1038,7 +1037,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1058,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1079,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1101,7 +1100,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1120,7 +1119,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1141,7 +1140,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1160,7 +1159,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1180,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="120">
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1202,7 +1201,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1223,7 +1222,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1244,7 +1243,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1265,7 +1264,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
